--- a/documentation/Code Record.xlsx
+++ b/documentation/Code Record.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/aff6c2e7aaf478e0/Documents/University Files/Modules/CMP4011A/Lab Work/Group Project/CMP4011A/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/aff6c2e7aaf478e0/Documents/University Files/Modules/CMP4011A/Lab Work/Group Project/CMP4011A/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="8_{69257620-F4EC-3D45-98DE-FF8EEB70043E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D92315E9-527E-084F-ADF4-82069520AA17}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="8_{69257620-F4EC-3D45-98DE-FF8EEB70043E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{73C5ED8A-911B-C14A-BB3C-7658A558DE26}"/>
   <bookViews>
-    <workbookView xWindow="680" yWindow="740" windowWidth="28040" windowHeight="17240" xr2:uid="{080229FA-A9D9-E748-BB1E-E732181A4591}"/>
+    <workbookView xWindow="680" yWindow="740" windowWidth="28040" windowHeight="17200" xr2:uid="{080229FA-A9D9-E748-BB1E-E732181A4591}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="22">
   <si>
     <t>Task</t>
   </si>
@@ -99,13 +99,16 @@
   </si>
   <si>
     <t>All Pages</t>
+  </si>
+  <si>
+    <t>VJ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -135,12 +138,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="22"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="12"/>
       <color theme="1"/>
@@ -156,7 +153,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -193,19 +190,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -233,7 +217,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -241,31 +225,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -281,6 +260,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -600,10 +583,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E770589-ABF5-1D4F-B841-D2FC3B293113}">
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="94" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="125" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -617,11 +600,11 @@
       <c r="A1" s="1"/>
     </row>
     <row r="2" spans="1:4" ht="43" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
@@ -635,7 +618,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -646,7 +629,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
@@ -657,7 +640,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -668,10 +651,10 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="4" t="s">
@@ -679,7 +662,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C9" s="4" t="s">
@@ -690,7 +673,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C10" s="4" t="s">
@@ -701,7 +684,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C11" s="4" t="s">
@@ -712,7 +695,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C12" s="4" t="s">
@@ -723,7 +706,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C13" s="4" t="s">
@@ -734,7 +717,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C14" s="4" t="s">
@@ -745,7 +728,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C15" s="4" t="s">
@@ -756,7 +739,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C16" s="4" t="s">
@@ -766,8 +749,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B17" s="6" t="s">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B17" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C17" s="4" t="s">
@@ -777,8 +760,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B18" s="6" t="s">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B18" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C18" s="4" t="s">
@@ -788,8 +771,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B19" s="6" t="s">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B19" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C19" s="4" t="s">
@@ -799,19 +782,19 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B20" s="6" t="s">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B20" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B21" s="6" t="s">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B21" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C21" s="4" t="s">
@@ -821,8 +804,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B22" s="6" t="s">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B22" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C22" s="4" t="s">
@@ -832,8 +815,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B23" s="6" t="s">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B23" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C23" s="4" t="s">
@@ -843,41 +826,41 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B24" s="6" t="s">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B24" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B25" s="6" t="s">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B25" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B26" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B26" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B27" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B27" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C27" s="4" t="s">
@@ -886,130 +869,98 @@
       <c r="D27" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B28" s="6" t="s">
+      <c r="H27" s="13"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B28" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B29" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C29" s="9" t="s">
+      <c r="H28" s="13"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B29" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D29" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B30" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C30" s="11" t="s">
+      <c r="D29" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H29" s="13"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="14"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B30" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D30" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B31" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C31" s="11" t="s">
+      <c r="D30" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H30" s="13"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="14"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B31" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C31" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D31" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B32" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C32" s="11" t="s">
+      <c r="D31" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B32" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D32" s="11" t="s">
+      <c r="D32" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B33" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B34" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C34" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D34" s="11" t="s">
+      <c r="B33" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B35" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C35" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D35" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B36" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C36" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D36" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B37" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D37" s="16" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B39" s="14" t="s">
+      <c r="B35" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C39" s="15"/>
-      <c r="D39" s="16" t="s">
+      <c r="C35" s="12"/>
+      <c r="D35" s="8" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B35:C35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/documentation/Code Record.xlsx
+++ b/documentation/Code Record.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/aff6c2e7aaf478e0/Documents/University Files/Modules/CMP4011A/Lab Work/Group Project/CMP4011A/documentation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\panka\OneDrive\Documents\GitHub\CMP4011A\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="8_{69257620-F4EC-3D45-98DE-FF8EEB70043E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{73C5ED8A-911B-C14A-BB3C-7658A558DE26}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8BB303C-1965-4C59-B8E4-95952CD65FC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="680" yWindow="740" windowWidth="28040" windowHeight="17200" xr2:uid="{080229FA-A9D9-E748-BB1E-E732181A4591}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{080229FA-A9D9-E748-BB1E-E732181A4591}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="25">
   <si>
     <t>Task</t>
   </si>
@@ -102,6 +102,15 @@
   </si>
   <si>
     <t>VJ</t>
+  </si>
+  <si>
+    <t>Archer/VJ</t>
+  </si>
+  <si>
+    <t>Archer/VJ/PJ</t>
+  </si>
+  <si>
+    <t>JAVA</t>
   </si>
 </sst>
 </file>
@@ -236,15 +245,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -260,10 +269,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -585,28 +590,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E770589-ABF5-1D4F-B841-D2FC3B293113}">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="125" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.33203125" customWidth="1"/>
+    <col min="1" max="1" width="5.296875" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="11.83203125" customWidth="1"/>
+    <col min="3" max="3" width="11.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
     </row>
-    <row r="2" spans="1:4" ht="43" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="10" t="s">
+    <row r="2" spans="1:4" ht="43.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
         <v>12</v>
       </c>
@@ -617,7 +622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
@@ -625,10 +630,10 @@
         <v>5</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
         <v>2</v>
       </c>
@@ -636,10 +641,10 @@
         <v>6</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
         <v>2</v>
       </c>
@@ -650,7 +655,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
         <v>2</v>
       </c>
@@ -661,7 +666,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
         <v>3</v>
       </c>
@@ -672,7 +677,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
         <v>3</v>
       </c>
@@ -683,7 +688,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
         <v>3</v>
       </c>
@@ -694,7 +699,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
         <v>3</v>
       </c>
@@ -705,7 +710,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
         <v>4</v>
       </c>
@@ -716,7 +721,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
         <v>4</v>
       </c>
@@ -727,7 +732,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
         <v>4</v>
       </c>
@@ -738,7 +743,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="s">
         <v>4</v>
       </c>
@@ -749,7 +754,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
         <v>8</v>
       </c>
@@ -760,7 +765,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B18" s="2" t="s">
         <v>8</v>
       </c>
@@ -771,7 +776,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B19" s="2" t="s">
         <v>8</v>
       </c>
@@ -782,7 +787,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B20" s="2" t="s">
         <v>8</v>
       </c>
@@ -793,7 +798,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B21" s="2" t="s">
         <v>14</v>
       </c>
@@ -804,7 +809,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B22" s="2" t="s">
         <v>14</v>
       </c>
@@ -815,7 +820,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B23" s="2" t="s">
         <v>14</v>
       </c>
@@ -826,7 +831,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B24" s="2" t="s">
         <v>14</v>
       </c>
@@ -837,7 +842,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B25" s="2" t="s">
         <v>15</v>
       </c>
@@ -848,7 +853,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B26" s="2" t="s">
         <v>15</v>
       </c>
@@ -859,21 +864,21 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B27" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H27" s="13"/>
-      <c r="I27" s="14"/>
-      <c r="J27" s="14"/>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="H27" s="10"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B28" s="2" t="s">
         <v>15</v>
       </c>
@@ -883,11 +888,11 @@
       <c r="D28" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H28" s="13"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="14"/>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="H28" s="10"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B29" s="5" t="s">
         <v>17</v>
       </c>
@@ -895,13 +900,13 @@
         <v>5</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H29" s="13"/>
-      <c r="I29" s="14"/>
-      <c r="J29" s="14"/>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+      <c r="H29" s="10"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B30" s="5" t="s">
         <v>17</v>
       </c>
@@ -909,13 +914,13 @@
         <v>6</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H30" s="13"/>
-      <c r="I30" s="14"/>
-      <c r="J30" s="14"/>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+      <c r="H30" s="10"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B31" s="5" t="s">
         <v>17</v>
       </c>
@@ -926,7 +931,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B32" s="5" t="s">
         <v>17</v>
       </c>
@@ -937,7 +942,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B33" s="9" t="s">
         <v>20</v>
       </c>
@@ -948,13 +953,13 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B35" s="11" t="s">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B35" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C35" s="12"/>
+      <c r="C35" s="14"/>
       <c r="D35" s="8" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/documentation/Code Record.xlsx
+++ b/documentation/Code Record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\panka\OneDrive\Documents\GitHub\CMP4011A\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8BB303C-1965-4C59-B8E4-95952CD65FC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B860D2D-B90E-427D-8D48-C1C1AD78FA1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{080229FA-A9D9-E748-BB1E-E732181A4591}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="26">
   <si>
     <t>Task</t>
   </si>
@@ -111,6 +111,9 @@
   </si>
   <si>
     <t>JAVA</t>
+  </si>
+  <si>
+    <t>Vinisha</t>
   </si>
 </sst>
 </file>
@@ -590,8 +593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E770589-ABF5-1D4F-B841-D2FC3B293113}">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="125" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -872,7 +875,7 @@
         <v>24</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="H27" s="10"/>
       <c r="I27" s="11"/>
@@ -928,7 +931,7 @@
         <v>7</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.3">

--- a/documentation/Code Record.xlsx
+++ b/documentation/Code Record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\panka\OneDrive\Documents\GitHub\CMP4011A\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B860D2D-B90E-427D-8D48-C1C1AD78FA1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F32BC0CD-800E-4DCE-9E15-38C570772041}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{080229FA-A9D9-E748-BB1E-E732181A4591}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="26">
   <si>
     <t>Task</t>
   </si>
@@ -591,10 +591,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E770589-ABF5-1D4F-B841-D2FC3B293113}">
-  <dimension ref="A1:J35"/>
+  <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="125" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="125" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -886,24 +886,24 @@
         <v>15</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="H28" s="10"/>
       <c r="I28" s="11"/>
       <c r="J28" s="11"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B29" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>21</v>
+      <c r="B29" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="H29" s="10"/>
       <c r="I29" s="11"/>
@@ -913,10 +913,10 @@
       <c r="B30" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C30" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D30" s="7" t="s">
+      <c r="C30" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" s="6" t="s">
         <v>21</v>
       </c>
       <c r="H30" s="10"/>
@@ -928,10 +928,10 @@
         <v>17</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.3">
@@ -939,36 +939,47 @@
         <v>17</v>
       </c>
       <c r="C32" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B33" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C33" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D32" s="7" t="s">
+      <c r="D33" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B33" s="9" t="s">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B34" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C34" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D33" s="8" t="s">
+      <c r="D34" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B35" s="13" t="s">
+    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B36" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C35" s="14"/>
-      <c r="D35" s="8" t="s">
+      <c r="C36" s="14"/>
+      <c r="D36" s="8" t="s">
         <v>23</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/documentation/Code Record.xlsx
+++ b/documentation/Code Record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\panka\OneDrive\Documents\GitHub\CMP4011A\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F32BC0CD-800E-4DCE-9E15-38C570772041}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F752C77-9B3E-40CB-AE4D-543FC618F5D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{080229FA-A9D9-E748-BB1E-E732181A4591}"/>
   </bookViews>
@@ -594,7 +594,7 @@
   <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A17" zoomScale="125" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -831,7 +831,7 @@
         <v>7</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.3">

--- a/documentation/Code Record.xlsx
+++ b/documentation/Code Record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\panka\OneDrive\Documents\GitHub\CMP4011A\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F752C77-9B3E-40CB-AE4D-543FC618F5D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56F74726-5D19-4600-B718-D0D87AF89938}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{080229FA-A9D9-E748-BB1E-E732181A4591}"/>
   </bookViews>
@@ -593,7 +593,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E770589-ABF5-1D4F-B841-D2FC3B293113}">
   <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="125" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="125" workbookViewId="0">
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>

--- a/documentation/Code Record.xlsx
+++ b/documentation/Code Record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\panka\OneDrive\Documents\GitHub\CMP4011A\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56F74726-5D19-4600-B718-D0D87AF89938}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D74FA308-836D-4033-A6E1-6751CCCB6D26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{080229FA-A9D9-E748-BB1E-E732181A4591}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="26">
   <si>
     <t>Task</t>
   </si>
@@ -594,7 +594,7 @@
   <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A15" zoomScale="125" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -698,9 +698,7 @@
       <c r="C11" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>10</v>
-      </c>
+      <c r="D11" s="4"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
@@ -742,9 +740,7 @@
       <c r="C15" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>10</v>
-      </c>
+      <c r="D15" s="4"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="s">
@@ -786,9 +782,7 @@
       <c r="C19" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D19" s="4" t="s">
-        <v>10</v>
-      </c>
+      <c r="D19" s="4"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B20" s="2" t="s">

--- a/documentation/Code Record.xlsx
+++ b/documentation/Code Record.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\panka\OneDrive\Documents\GitHub\CMP4011A\documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/aff6c2e7aaf478e0/Documents/University Files/Modules/CMP4011A/Lab Work/Group Project/CMP4011A/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D74FA308-836D-4033-A6E1-6751CCCB6D26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{D74FA308-836D-4033-A6E1-6751CCCB6D26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BD9A1D04-B8EB-1B42-B3F9-DD9B263212E8}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{080229FA-A9D9-E748-BB1E-E732181A4591}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="23260" windowHeight="12460" xr2:uid="{080229FA-A9D9-E748-BB1E-E732181A4591}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="26">
   <si>
     <t>Task</t>
   </si>
@@ -593,28 +593,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E770589-ABF5-1D4F-B841-D2FC3B293113}">
   <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="125" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="125" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.296875" customWidth="1"/>
+    <col min="1" max="1" width="5.33203125" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="11.796875" customWidth="1"/>
+    <col min="3" max="3" width="11.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
     </row>
-    <row r="2" spans="1:4" ht="43.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="43" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="12" t="s">
         <v>18</v>
       </c>
       <c r="C2" s="12"/>
       <c r="D2" s="12"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
         <v>12</v>
       </c>
@@ -625,7 +625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
@@ -636,7 +636,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>2</v>
       </c>
@@ -647,7 +647,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
         <v>2</v>
       </c>
@@ -658,7 +658,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
         <v>2</v>
       </c>
@@ -669,7 +669,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
         <v>3</v>
       </c>
@@ -680,7 +680,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
         <v>3</v>
       </c>
@@ -691,16 +691,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="4"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D11" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
         <v>3</v>
       </c>
@@ -711,7 +713,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
         <v>4</v>
       </c>
@@ -722,7 +724,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
         <v>4</v>
       </c>
@@ -733,16 +735,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="4"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D15" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
         <v>4</v>
       </c>
@@ -753,7 +757,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
         <v>8</v>
       </c>
@@ -764,7 +768,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
         <v>8</v>
       </c>
@@ -775,16 +779,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D19" s="4"/>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="D19" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
         <v>8</v>
       </c>
@@ -795,7 +801,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
         <v>14</v>
       </c>
@@ -806,7 +812,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
         <v>14</v>
       </c>
@@ -817,7 +823,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
         <v>14</v>
       </c>
@@ -828,7 +834,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
         <v>14</v>
       </c>
@@ -839,7 +845,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B25" s="2" t="s">
         <v>15</v>
       </c>
@@ -850,7 +856,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B26" s="2" t="s">
         <v>15</v>
       </c>
@@ -861,7 +867,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B27" s="2" t="s">
         <v>15</v>
       </c>
@@ -875,7 +881,7 @@
       <c r="I27" s="11"/>
       <c r="J27" s="11"/>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B28" s="2" t="s">
         <v>15</v>
       </c>
@@ -889,7 +895,7 @@
       <c r="I28" s="11"/>
       <c r="J28" s="11"/>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B29" s="2" t="s">
         <v>15</v>
       </c>
@@ -903,7 +909,7 @@
       <c r="I29" s="11"/>
       <c r="J29" s="11"/>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B30" s="5" t="s">
         <v>17</v>
       </c>
@@ -917,7 +923,7 @@
       <c r="I30" s="11"/>
       <c r="J30" s="11"/>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B31" s="5" t="s">
         <v>17</v>
       </c>
@@ -928,7 +934,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B32" s="5" t="s">
         <v>17</v>
       </c>
@@ -939,7 +945,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B33" s="5" t="s">
         <v>17</v>
       </c>
@@ -950,7 +956,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B34" s="9" t="s">
         <v>20</v>
       </c>
@@ -961,7 +967,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B36" s="13" t="s">
         <v>16</v>
       </c>
